--- a/Pandas-YouTube.xlsx
+++ b/Pandas-YouTube.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C2913F3A-C2D5-41D0-A3BE-B59298ABE085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBB993-8F79-46B1-B06B-36E61A23C683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Part1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,19 +26,677 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>https://www.youtube.com/watch?v=vmEHCJofslg&amp;ab_channel=KeithGalli</t>
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
+  </si>
+  <si>
+    <t>Work with larger datasets / big data</t>
+  </si>
+  <si>
+    <t>Learning using Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Run this first and ensure Jupyter has been initialised against this folder where the csv has been downloaded</t>
+  </si>
+  <si>
+    <t>Head by default returns 5 rows</t>
+  </si>
+  <si>
+    <t>Reading file</t>
+  </si>
+  <si>
+    <r>
+      <t>df = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("pokemon_data.csv")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>head()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>For some reason if the csv doesn’t load in Python 3, re-download data as tab delimited text file and re-save this as csv</t>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tail()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tail by default returns 5 rows</t>
+  </si>
+  <si>
+    <t>in csv</t>
+  </si>
+  <si>
+    <t>in Excel</t>
+  </si>
+  <si>
+    <t>print(df_xl.head())</t>
+  </si>
+  <si>
+    <t>in Tab separated</t>
+  </si>
+  <si>
+    <t>print(df_tab.head())</t>
+  </si>
+  <si>
+    <r>
+      <t>df_xl = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("pokemon_data.xlsx")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df_tab = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">("pokemon_data.txt", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delimited = "\t"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>you can use any delimiter depending on what has been used</t>
+  </si>
+  <si>
+    <t>list headers</t>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>this will list all columns / headers</t>
+  </si>
+  <si>
+    <t>list specific column</t>
+  </si>
+  <si>
+    <t>print(['Name'][0:5])</t>
+  </si>
+  <si>
+    <t>this will print 5 rows from the 'Name' column</t>
+  </si>
+  <si>
+    <t>print(df[['#','Name']][0:5])</t>
+  </si>
+  <si>
+    <t>print(df[['#','Name', 'HP', 'Attack']])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will print 5 rows of 2 columns </t>
+  </si>
+  <si>
+    <t>this will print all rows from 4 columns</t>
+  </si>
+  <si>
+    <t>remember to put column names in double [] when declaring an array of columns</t>
+  </si>
+  <si>
+    <t>print a specific row</t>
+  </si>
+  <si>
+    <t>this will print range of rows</t>
+  </si>
+  <si>
+    <t>print range of rows</t>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0:2])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9:11])</t>
+    </r>
+  </si>
+  <si>
+    <t>this will print rows from row 10 &amp; 11 ; worked out by first subtracting right to left ; first row is +1 of the left</t>
+  </si>
+  <si>
+    <t>print a specific cell</t>
+  </si>
+  <si>
+    <t>iloc[rows, columns] : similar to Excel except add +1 to both rows and column to ascertain cell ref; this will print data from first row and column</t>
+  </si>
+  <si>
+    <t>this will print 13th row and 2nd col data</t>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0])</t>
+    </r>
+  </si>
+  <si>
+    <t>df.loc[df['Type 1'] == 'Fire']</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this will print first row ; rows begin with 0 in Python ; iloc is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer location</t>
+    </r>
+  </si>
+  <si>
+    <t>this will list all columns where 'Type 1' column has a value of 'Fire'</t>
+  </si>
+  <si>
+    <t>print size of table</t>
+  </si>
+  <si>
+    <t>df.shape</t>
+  </si>
+  <si>
+    <t>e.g. of output is (800, 12) i.e. 800 rows and 12 columns</t>
+  </si>
+  <si>
+    <t>print rows against col selected</t>
+  </si>
+  <si>
+    <t>print all rows against col selected</t>
+  </si>
+  <si>
+    <t>Filter based on condition</t>
+  </si>
+  <si>
+    <t>Filter with 2 conditions - AND</t>
+  </si>
+  <si>
+    <t>Filter with 2 conditions - OR</t>
+  </si>
+  <si>
+    <t>remember to nest individual condition in ()</t>
+  </si>
+  <si>
+    <r>
+      <t>df.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Type 1']=='Grass'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) | (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Type 2'] == 'Poison'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Speed']==80</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Type 1']=='Grass'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +706,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,9 +751,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,6 +1094,267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181345A5-5E18-4BD8-BAA0-D269380D378F}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.33203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Pandas-YouTube.xlsx
+++ b/Pandas-YouTube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBB993-8F79-46B1-B06B-36E61A23C683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2DC149-538D-4766-B78C-A78D1C250EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>https://www.youtube.com/watch?v=vmEHCJofslg&amp;ab_channel=KeithGalli</t>
   </si>
@@ -87,6 +87,124 @@
     </r>
   </si>
   <si>
+    <t>For some reason if the csv doesn’t load in Python 3, re-download data as tab delimited text file and re-save this as csv</t>
+  </si>
+  <si>
+    <t>Tail by default returns 5 rows</t>
+  </si>
+  <si>
+    <r>
+      <t>df_xl = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("pokemon_data.xlsx")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df_tab = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">("pokemon_data.txt", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delimited = "\t"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>you can use any delimiter depending on what has been used</t>
+  </si>
+  <si>
+    <t>list headers</t>
+  </si>
+  <si>
+    <t>this will list all columns / headers</t>
+  </si>
+  <si>
+    <t>list specific column</t>
+  </si>
+  <si>
+    <t>this will print 5 rows from the 'Name' column</t>
+  </si>
+  <si>
+    <t>print(df[['#','Name']][0:5])</t>
+  </si>
+  <si>
+    <t>print(df[['#','Name', 'HP', 'Attack']])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will print 5 rows of 2 columns </t>
+  </si>
+  <si>
+    <t>this will print all rows from 4 columns</t>
+  </si>
+  <si>
+    <t>remember to put column names in double [] when declaring an array of columns</t>
+  </si>
+  <si>
+    <t>print a specific row</t>
+  </si>
+  <si>
+    <t>this will print range of rows</t>
+  </si>
+  <si>
+    <t>print range of rows</t>
+  </si>
+  <si>
     <r>
       <t>print(df.</t>
     </r>
@@ -99,10 +217,276 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>head()</t>
-    </r>
-    <r>
-      <rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0:2])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9:11])</t>
+    </r>
+  </si>
+  <si>
+    <t>this will print rows from row 10 &amp; 11 ; worked out by first subtracting right to left ; first row is +1 of the left</t>
+  </si>
+  <si>
+    <t>print a specific cell</t>
+  </si>
+  <si>
+    <t>iloc[rows, columns] : similar to Excel except add +1 to both rows and column to ascertain cell ref; this will print data from first row and column</t>
+  </si>
+  <si>
+    <t>this will print 13th row and 2nd col data</t>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0])</t>
+    </r>
+  </si>
+  <si>
+    <t>df.loc[df['Type 1'] == 'Fire']</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this will print first row ; rows begin with 0 in Python ; iloc is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer location</t>
+    </r>
+  </si>
+  <si>
+    <t>this will list all columns where 'Type 1' column has a value of 'Fire'</t>
+  </si>
+  <si>
+    <t>print size of table</t>
+  </si>
+  <si>
+    <t>df.shape</t>
+  </si>
+  <si>
+    <t>e.g. of output is (800, 12) i.e. 800 rows and 12 columns</t>
+  </si>
+  <si>
+    <t>print rows against col selected</t>
+  </si>
+  <si>
+    <t>print all rows against col selected</t>
+  </si>
+  <si>
+    <t>Filter based on condition</t>
+  </si>
+  <si>
+    <t>Filter with 2 conditions - AND</t>
+  </si>
+  <si>
+    <t>Filter with 2 conditions - OR</t>
+  </si>
+  <si>
+    <t>remember to nest individual condition in ()</t>
+  </si>
+  <si>
+    <r>
+      <t>df.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Type 1']=='Grass'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) | (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Type 2'] == 'Poison'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -111,27 +495,87 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>For some reason if the csv doesn’t load in Python 3, re-download data as tab delimited text file and re-save this as csv</t>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tail()</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.loc[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Speed']==80</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Type 1']=='Grass'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -140,86 +584,119 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Tail by default returns 5 rows</t>
-  </si>
-  <si>
-    <t>in csv</t>
-  </si>
-  <si>
-    <t>in Excel</t>
-  </si>
-  <si>
-    <t>print(df_xl.head())</t>
-  </si>
-  <si>
-    <t>in Tab separated</t>
-  </si>
-  <si>
-    <t>print(df_tab.head())</t>
-  </si>
-  <si>
-    <r>
-      <t>df_xl = pd.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read_excel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("pokemon_data.xlsx")</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>df_tab = pd.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read_csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">("pokemon_data.txt", </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delimited = "\t"</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Iterate through rows</t>
+  </si>
+  <si>
+    <t>this will generate value from Name column per index</t>
+  </si>
+  <si>
+    <t>Summarise data / table</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>describe()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for index, row in df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iterrows()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+    print(index,row['Name'])</t>
+    </r>
+  </si>
+  <si>
+    <t>will summarise all number columns</t>
+  </si>
+  <si>
+    <t>Sort Values - Asc</t>
+  </si>
+  <si>
+    <t>Sort Values - Desc</t>
+  </si>
+  <si>
+    <t>Sort Values - Desc (multiple col)</t>
+  </si>
+  <si>
+    <t>Sort Values - Asc(multiple col)</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(['HP', 'Name'], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending=False</t>
     </r>
     <r>
       <rPr>
@@ -233,14 +710,182 @@
     </r>
   </si>
   <si>
-    <t>you can use any delimiter depending on what has been used</t>
-  </si>
-  <si>
-    <t>list headers</t>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values(['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name'], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending=False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values(['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name'], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(['Attack', 'HP'], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sort values in asc &amp; desc</t>
+  </si>
+  <si>
+    <t>0 : desc and 1: asc</t>
+  </si>
+  <si>
+    <t>import csv</t>
+  </si>
+  <si>
+    <t>top rows</t>
+  </si>
+  <si>
+    <t>bottom rows</t>
+  </si>
+  <si>
+    <t>import Excel</t>
+  </si>
+  <si>
+    <t>import Text file</t>
+  </si>
+  <si>
+    <t>df.head()</t>
+  </si>
+  <si>
+    <t>df.tail()</t>
+  </si>
+  <si>
+    <t>df_xl.head()</t>
+  </si>
+  <si>
+    <t>df_tab.head()</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
     </r>
     <r>
       <rPr>
@@ -261,434 +906,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>df['Name'][0:5]</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort_values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(['HP', 'Attack'], ascending=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0,1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>this will list all columns / headers</t>
-  </si>
-  <si>
-    <t>list specific column</t>
-  </si>
-  <si>
-    <t>print(['Name'][0:5])</t>
-  </si>
-  <si>
-    <t>this will print 5 rows from the 'Name' column</t>
-  </si>
-  <si>
-    <t>print(df[['#','Name']][0:5])</t>
-  </si>
-  <si>
-    <t>print(df[['#','Name', 'HP', 'Attack']])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this will print 5 rows of 2 columns </t>
-  </si>
-  <si>
-    <t>this will print all rows from 4 columns</t>
-  </si>
-  <si>
-    <t>remember to put column names in double [] when declaring an array of columns</t>
-  </si>
-  <si>
-    <t>print a specific row</t>
-  </si>
-  <si>
-    <t>this will print range of rows</t>
-  </si>
-  <si>
-    <t>print range of rows</t>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0:2])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[9:11])</t>
-    </r>
-  </si>
-  <si>
-    <t>this will print rows from row 10 &amp; 11 ; worked out by first subtracting right to left ; first row is +1 of the left</t>
-  </si>
-  <si>
-    <t>print a specific cell</t>
-  </si>
-  <si>
-    <t>iloc[rows, columns] : similar to Excel except add +1 to both rows and column to ascertain cell ref; this will print data from first row and column</t>
-  </si>
-  <si>
-    <t>this will print 13th row and 2nd col data</t>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[12</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(df.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0])</t>
-    </r>
-  </si>
-  <si>
-    <t>df.loc[df['Type 1'] == 'Fire']</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">this will print first row ; rows begin with 0 in Python ; iloc is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>integer location</t>
-    </r>
-  </si>
-  <si>
-    <t>this will list all columns where 'Type 1' column has a value of 'Fire'</t>
-  </si>
-  <si>
-    <t>print size of table</t>
-  </si>
-  <si>
-    <t>df.shape</t>
-  </si>
-  <si>
-    <t>e.g. of output is (800, 12) i.e. 800 rows and 12 columns</t>
-  </si>
-  <si>
-    <t>print rows against col selected</t>
-  </si>
-  <si>
-    <t>print all rows against col selected</t>
-  </si>
-  <si>
-    <t>Filter based on condition</t>
-  </si>
-  <si>
-    <t>Filter with 2 conditions - AND</t>
-  </si>
-  <si>
-    <t>Filter with 2 conditions - OR</t>
-  </si>
-  <si>
-    <t>remember to nest individual condition in ()</t>
-  </si>
-  <si>
-    <r>
-      <t>df.loc[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>df['Type 1']=='Grass'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) | (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>df['Type 2'] == 'Poison'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>df.loc[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>df['Speed']==80</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>df['Type 1']=='Grass'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>this will create a new column called 'Total' and sum mulitple columns; to view results use head or tail function</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['Total'] =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> df['HP'] + df['Attack'] + df['Defense'] + df['Sp. Atk'] + df['Sp. Def'] + df['Speed']</t>
     </r>
   </si>
 </sst>
@@ -1120,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181345A5-5E18-4BD8-BAA0-D269380D378F}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,15 +1454,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -1173,186 +1473,265 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Pandas-YouTube.xlsx
+++ b/Pandas-YouTube.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2DC149-538D-4766-B78C-A78D1C250EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E7229-8A87-44E6-A27C-C2F2187095A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Part1" sheetId="2" r:id="rId2"/>
+    <sheet name="Challenge" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>https://www.youtube.com/watch?v=vmEHCJofslg&amp;ab_channel=KeithGalli</t>
   </si>
@@ -960,9 +961,6 @@
     </r>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>this will create a new column called 'Total' and sum mulitple columns; to view results use head or tail function</t>
   </si>
   <si>
@@ -986,6 +984,134 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> df['HP'] + df['Attack'] + df['Defense'] + df['Sp. Atk'] + df['Sp. Def'] + df['Speed']</t>
+    </r>
+  </si>
+  <si>
+    <t>Drop / Remove column</t>
+  </si>
+  <si>
+    <t>this will drop column 'Total' ; use head or tail to check whether this col has been removed</t>
+  </si>
+  <si>
+    <r>
+      <t>df = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(columns=['Total'])</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum - Method 1</t>
+  </si>
+  <si>
+    <t>Sum - Method 2</t>
+  </si>
+  <si>
+    <t>df['Total'] = df.iloc[:,4:10].sum(axis=1)</t>
+  </si>
+  <si>
+    <t>iloc[:,4:10] : all rows included, columns begin with 5 to 10 means col 5 to 9 are totalled 
+axis=1 : means totals are horizontal, whereas 0 will be vertical</t>
+  </si>
+  <si>
+    <t>Move column / re-arrange / re-order column</t>
+  </si>
+  <si>
+    <t>Import CSV / Text / Excel</t>
+  </si>
+  <si>
+    <t>Total all the numeric fields</t>
+  </si>
+  <si>
+    <t>Re-arrange Total field to show before the numeric field</t>
+  </si>
+  <si>
+    <t>Sort multiple columns in asc &amp; desc order</t>
+  </si>
+  <si>
+    <t>Filter records based on a condition</t>
+  </si>
+  <si>
+    <t>Export as csv</t>
+  </si>
+  <si>
+    <t>First list all columns, rearrange</t>
+  </si>
+  <si>
+    <t>Export as CSV</t>
+  </si>
+  <si>
+    <t>exports as csv to the location where the python is initialised</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("modified.csv")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cols =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(df.columns)
+df = df[cols[0:4] + [cols[-1]] + cols[4:12]]</t>
     </r>
   </si>
 </sst>
@@ -1417,15 +1543,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181345A5-5E18-4BD8-BAA0-D269380D378F}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1725,17 +1851,124 @@
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>81</v>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6128FE6-9A75-46C0-9584-9DF8D91D3CCF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pandas-YouTube.xlsx
+++ b/Pandas-YouTube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\Python\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E7229-8A87-44E6-A27C-C2F2187095A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1791764-29FF-4802-AFD6-8E1E80211BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>https://www.youtube.com/watch?v=vmEHCJofslg&amp;ab_channel=KeithGalli</t>
   </si>
@@ -1044,12 +1044,6 @@
     <t>Re-arrange Total field to show before the numeric field</t>
   </si>
   <si>
-    <t>Sort multiple columns in asc &amp; desc order</t>
-  </si>
-  <si>
-    <t>Filter records based on a condition</t>
-  </si>
-  <si>
     <t>Export as csv</t>
   </si>
   <si>
@@ -1113,13 +1107,87 @@
       <t>(df.columns)
 df = df[cols[0:4] + [cols[-1]] + cols[4:12]]</t>
     </r>
+  </si>
+  <si>
+    <t>Summarise the table</t>
+  </si>
+  <si>
+    <t>Print list of all columns</t>
+  </si>
+  <si>
+    <t>Print total rows and columns in the table</t>
+  </si>
+  <si>
+    <t>Print top 5 and bottom 5 records from the table</t>
+  </si>
+  <si>
+    <t>Print all or few rows from 1 or more columns</t>
+  </si>
+  <si>
+    <t>Print specific row and column</t>
+  </si>
+  <si>
+    <t>Filter records based on 1 or more conditions (using and/or) assigning to a new variable and printing shape</t>
+  </si>
+  <si>
+    <t>Sort 1 or multiple columns in asc &amp; desc order</t>
+  </si>
+  <si>
+    <t>Filter using Wildcards</t>
+  </si>
+  <si>
+    <t>This will filter based on 2 conditions using or and using wildcard using .str.contains</t>
+  </si>
+  <si>
+    <r>
+      <t>df.loc[(df['Name'] == 'Ivysaur') | (df['Name'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('Venusaur'))]</t>
+    </r>
+  </si>
+  <si>
+    <t>column_name.str.startswith('s')</t>
+  </si>
+  <si>
+    <t>column_name.str.endswith('s')</t>
+  </si>
+  <si>
+    <t>column_name.str.contains('s')</t>
+  </si>
+  <si>
+    <t>Fitler records using wildcard - contains</t>
+  </si>
+  <si>
+    <t>Filter Null Values</t>
+  </si>
+  <si>
+    <t>df.loc[df['Type 1'].isnull()]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1221,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1174,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1187,6 +1261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,16 +1618,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181345A5-5E18-4BD8-BAA0-D269380D378F}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1784,124 +1859,164 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B51" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B60" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6128FE6-9A75-46C0-9584-9DF8D91D3CCF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1930,42 +2045,94 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>+A1+1</f>
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>+A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" ref="A4:A9" si="0">+A3+1</f>
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
